--- a/data_binding_login.xlsx
+++ b/data_binding_login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Katalon Studio\Task ACC Partner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git\update27maret\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFF841-E865-4EC0-9EAE-A1D7198E5452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB281C3-4081-47D9-991D-2A7BC9165F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="11070" xr2:uid="{C66BB678-4498-41B5-A012-6DA19A79C3A8}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="19350" windowHeight="11070" xr2:uid="{C66BB678-4498-41B5-A012-6DA19A79C3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>qwerty1234</t>
   </si>
   <si>
-    <t>SalesCiputat1</t>
-  </si>
-  <si>
     <t>Password1</t>
+  </si>
+  <si>
+    <t>KacabCiputat2</t>
   </si>
 </sst>
 </file>
@@ -123,15 +123,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,12 +145,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +485,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,178 +499,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" s="1">
+        <v>12312313</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" s="1">
+        <v>12313</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>12312313</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>12313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
